--- a/ResultadoEleicoesDistritos/BRAGA_BARCELOS.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_BARCELOS.xlsx
@@ -597,64 +597,64 @@
         <v>32000</v>
       </c>
       <c r="H2" t="n">
-        <v>1201</v>
+        <v>1230</v>
       </c>
       <c r="I2" t="n">
-        <v>3144</v>
+        <v>3158</v>
       </c>
       <c r="J2" t="n">
-        <v>13028</v>
+        <v>13120</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L2" t="n">
-        <v>3709</v>
+        <v>3688</v>
       </c>
       <c r="M2" t="n">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="N2" t="n">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="O2" t="n">
         <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R2" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="S2" t="n">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="T2" t="n">
-        <v>2278</v>
+        <v>2287</v>
       </c>
       <c r="U2" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="V2" t="n">
-        <v>20676</v>
+        <v>20416</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>20360</v>
+        <v>20549</v>
       </c>
       <c r="Y2" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA2" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
